--- a/TestData_Digi/OldExcelFramework_Digi.xlsx
+++ b/TestData_Digi/OldExcelFramework_Digi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16770" windowHeight="6345" tabRatio="761"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="6345" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="Controlsheet" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <sheet name="AdminUsers" sheetId="56" r:id="rId38"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J19"/>
+  <oleSize ref="A1:G19"/>
 </workbook>
 </file>
 
@@ -1947,9 +1947,6 @@
     <t>ReadTerms</t>
   </si>
   <si>
-    <t>PetitionTitle4</t>
-  </si>
-  <si>
     <t>Sign_NewUser001</t>
   </si>
   <si>
@@ -3508,6 +3505,9 @@
   </si>
   <si>
     <t>Login_TD15</t>
+  </si>
+  <si>
+    <t>PetitionTitle48</t>
   </si>
 </sst>
 </file>
@@ -3985,15 +3985,15 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="11" width="16.42578125" customWidth="1"/>
   </cols>
@@ -4057,34 +4057,34 @@
         <v>618</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AC1" s="17" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="20"/>
@@ -4119,13 +4119,13 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -4133,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -4165,7 +4165,7 @@
         <v>141</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -4178,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>295</v>
@@ -4336,7 +4336,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
@@ -4403,10 +4403,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -4446,10 +4446,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="20"/>
@@ -4595,7 +4595,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -4606,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="20"/>
@@ -4634,7 +4634,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="20"/>
@@ -4682,10 +4682,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4721,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="20"/>
@@ -4740,7 +4740,7 @@
         <v>493</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>625</v>
@@ -4749,7 +4749,7 @@
         <v>617</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -4766,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="20"/>
@@ -4783,7 +4783,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -4803,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="20"/>
@@ -4821,7 +4821,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -4863,10 +4863,10 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4881,10 +4881,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -4910,7 +4910,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4922,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -4963,10 +4963,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>295</v>
@@ -5004,10 +5004,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="20"/>
@@ -5129,7 +5129,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5168,7 +5168,7 @@
         <v>43</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>188</v>
@@ -5515,31 +5515,31 @@
         <v>295</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>1076</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>1077</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>1078</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>1079</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>1080</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>1081</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>710</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>1082</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>289</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>591</v>
@@ -5583,7 +5583,7 @@
         <v>597</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>598</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>210</v>
@@ -7969,7 +7969,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8078,7 +8078,7 @@
         <v>299</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>316</v>
@@ -8237,16 +8237,16 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>132</v>
@@ -8255,7 +8255,7 @@
         <v>128</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>129</v>
@@ -8267,22 +8267,22 @@
         <v>41</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="P2" s="20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>1031</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>130</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>131</v>
@@ -8291,7 +8291,7 @@
         <v>332</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -8302,25 +8302,25 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>127</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>128</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>129</v>
@@ -8332,31 +8332,31 @@
         <v>41</v>
       </c>
       <c r="O3" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>1015</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>1016</v>
-      </c>
       <c r="S3" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V3" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>1027</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -8367,25 +8367,25 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>128</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>129</v>
@@ -8397,31 +8397,31 @@
         <v>41</v>
       </c>
       <c r="O4" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R4" s="20" t="s">
         <v>1017</v>
       </c>
-      <c r="P4" s="20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>1018</v>
-      </c>
       <c r="S4" s="20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -8659,7 +8659,7 @@
         <v>416</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>45</v>
@@ -8679,13 +8679,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>416</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>45</v>
@@ -8868,25 +8868,25 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>337</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>345</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>351</v>
@@ -9100,22 +9100,22 @@
         <v>302</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>337</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>1128</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>1129</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>345</v>
@@ -9152,25 +9152,25 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>337</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>345</v>
@@ -10314,7 +10314,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10385,7 +10385,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -10400,7 +10400,7 @@
         <v>158</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -10445,7 +10445,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>45</v>
@@ -10475,7 +10475,7 @@
         <v>158</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>45</v>
@@ -10484,30 +10484,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>45</v>
@@ -10516,13 +10516,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -10531,10 +10531,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>16</v>
@@ -10546,13 +10546,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>17</v>
@@ -10926,7 +10926,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>304</v>
@@ -10934,26 +10934,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11014,13 +11014,13 @@
         <v>375</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11028,7 +11028,7 @@
         <v>369</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>319</v>
@@ -11037,10 +11037,10 @@
         <v>508</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>687</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11158,7 +11158,7 @@
         <v>319</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>459</v>
@@ -11247,28 +11247,28 @@
         <v>258</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>338</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11276,10 +11276,10 @@
         <v>385</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>
@@ -11409,8 +11409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11430,7 +11430,7 @@
         <v>400</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>94</v>
@@ -11454,7 +11454,7 @@
         <v>126</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -11463,13 +11463,13 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="28" t="s">
         <v>937</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>938</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>403</v>
@@ -11482,22 +11482,22 @@
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E3" s="28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>403</v>
@@ -11514,16 +11514,16 @@
     <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E4" s="28" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>403</v>
@@ -11540,16 +11540,16 @@
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E5" s="28" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>403</v>
@@ -11566,16 +11566,16 @@
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E6" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>403</v>
@@ -11592,16 +11592,16 @@
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>403</v>
@@ -11618,16 +11618,16 @@
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E8" s="28" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>403</v>
@@ -11644,16 +11644,16 @@
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>403</v>
@@ -11670,16 +11670,16 @@
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E10" s="28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>403</v>
@@ -11696,16 +11696,16 @@
     <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E11" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>403</v>
@@ -11722,16 +11722,16 @@
     <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E12" s="28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>403</v>
@@ -11748,16 +11748,16 @@
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>403</v>
@@ -11774,16 +11774,16 @@
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>403</v>
@@ -11800,16 +11800,16 @@
     <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>403</v>
@@ -11826,16 +11826,16 @@
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E16" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>403</v>
@@ -11852,16 +11852,16 @@
     <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E17" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>403</v>
@@ -11878,16 +11878,16 @@
     <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E18" s="28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>403</v>
@@ -11904,16 +11904,16 @@
     <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E19" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>403</v>
@@ -11930,16 +11930,16 @@
     <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>403</v>
@@ -11956,16 +11956,16 @@
     <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C21" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E21" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>403</v>
@@ -11982,16 +11982,16 @@
     <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C22" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E22" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>403</v>
@@ -12007,17 +12007,17 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>937</v>
-      </c>
       <c r="E23" s="28" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>403</v>
@@ -12030,22 +12030,22 @@
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C24" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="E24" s="28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>403</v>
@@ -12142,8 +12142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12163,7 +12163,7 @@
         <v>406</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>407</v>
@@ -12193,12 +12193,12 @@
         <v>411</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
@@ -12208,13 +12208,13 @@
         <v>408</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>413</v>
@@ -12227,28 +12227,28 @@
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E3" s="28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>413</v>
@@ -12265,22 +12265,22 @@
     <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E4" s="28" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>413</v>
@@ -12297,22 +12297,22 @@
     <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E5" s="28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>413</v>
@@ -12329,22 +12329,22 @@
     <row r="6" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E6" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>413</v>
@@ -12361,22 +12361,22 @@
     <row r="7" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>413</v>
@@ -12393,22 +12393,22 @@
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E8" s="28" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>413</v>
@@ -12425,22 +12425,22 @@
     <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>413</v>
@@ -12457,22 +12457,22 @@
     <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E10" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>413</v>
@@ -12489,22 +12489,22 @@
     <row r="11" spans="1:12">
       <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E11" s="28" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>413</v>
@@ -12521,22 +12521,22 @@
     <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E12" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>413</v>
@@ -12553,22 +12553,22 @@
     <row r="13" spans="1:12">
       <c r="A13" s="2"/>
       <c r="B13" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>413</v>
@@ -12585,22 +12585,22 @@
     <row r="14" spans="1:12">
       <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>413</v>
@@ -12617,22 +12617,22 @@
     <row r="15" spans="1:12">
       <c r="A15" s="2"/>
       <c r="B15" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>413</v>
@@ -12649,22 +12649,22 @@
     <row r="16" spans="1:12">
       <c r="A16" s="2"/>
       <c r="B16" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E16" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H16" s="28" t="s">
         <v>413</v>
@@ -12681,22 +12681,22 @@
     <row r="17" spans="1:12">
       <c r="A17" s="2"/>
       <c r="B17" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E17" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>413</v>
@@ -12713,22 +12713,22 @@
     <row r="18" spans="1:12">
       <c r="A18" s="2"/>
       <c r="B18" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E18" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>413</v>
@@ -12745,22 +12745,22 @@
     <row r="19" spans="1:12">
       <c r="A19" s="2"/>
       <c r="B19" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E19" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>413</v>
@@ -12777,22 +12777,22 @@
     <row r="20" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>413</v>
@@ -12808,7 +12808,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
@@ -12818,13 +12818,13 @@
         <v>408</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>413</v>
@@ -12837,28 +12837,28 @@
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2"/>
       <c r="B22" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C22" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>931</v>
-      </c>
       <c r="E22" s="28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>412</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>413</v>
@@ -12884,16 +12884,16 @@
         <v>83</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>45</v>
@@ -12910,22 +12910,22 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>1086</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>1087</v>
-      </c>
       <c r="E24" s="28" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>85</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>45</v>
@@ -12942,22 +12942,22 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>1088</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>1089</v>
-      </c>
       <c r="E25" s="28" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>45</v>
@@ -12974,22 +12974,22 @@
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>1090</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>1091</v>
-      </c>
       <c r="E26" s="28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>87</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>45</v>
@@ -13006,22 +13006,22 @@
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>1092</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>1093</v>
-      </c>
       <c r="E27" s="28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>88</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>45</v>
@@ -13038,22 +13038,22 @@
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>1094</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>1095</v>
-      </c>
       <c r="E28" s="28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>45</v>
@@ -13073,19 +13073,19 @@
         <v>75</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>90</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>45</v>
@@ -13102,22 +13102,22 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>1097</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>1098</v>
-      </c>
       <c r="E30" s="28" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>91</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>45</v>
@@ -13134,22 +13134,22 @@
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>1099</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>1100</v>
-      </c>
       <c r="E31" s="28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>45</v>
@@ -13166,22 +13166,22 @@
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>1101</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>1102</v>
-      </c>
       <c r="E32" s="28" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>45</v>
@@ -13349,10 +13349,10 @@
         <v>494</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>495</v>
@@ -13361,64 +13361,64 @@
         <v>191</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>888</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>889</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>500</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>496</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>497</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>870</v>
-      </c>
       <c r="X1" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13432,64 +13432,64 @@
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>319</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>489</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>878</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>508</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>507</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>319</v>
@@ -13498,7 +13498,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>510</v>
@@ -13507,7 +13507,7 @@
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>515</v>
@@ -13539,7 +13539,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>511</v>
@@ -13548,7 +13548,7 @@
         <v>498</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>516</v>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>512</v>
@@ -13589,7 +13589,7 @@
         <v>498</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>517</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>513</v>
@@ -13630,7 +13630,7 @@
         <v>498</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>518</v>
@@ -13791,35 +13791,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>883</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13875,7 +13875,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B1" t="s">
         <v>543</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -14249,8 +14249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14262,7 +14262,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>629</v>
@@ -14312,10 +14312,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>631</v>
+        <v>1151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>528</v>
@@ -14354,7 +14354,7 @@
         <v>590</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>319</v>
@@ -14362,19 +14362,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="31" t="s">
         <v>654</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>655</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>532</v>
@@ -14395,16 +14395,16 @@
         <v>555</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>319</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>319</v>
@@ -14412,19 +14412,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="31" t="s">
         <v>664</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>665</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>533</v>
@@ -14433,7 +14433,7 @@
         <v>536</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>540</v>
@@ -14445,13 +14445,13 @@
         <v>556</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>319</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="2" t="s">
@@ -14908,7 +14908,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>627</v>
@@ -14923,7 +14923,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>624</v>
@@ -14932,16 +14932,16 @@
         <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>628</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>319</v>
@@ -14949,7 +14949,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>624</v>
@@ -14958,10 +14958,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>628</v>
@@ -15075,7 +15075,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>623</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>624</v>
@@ -15146,49 +15146,49 @@
         <v>45</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="22" t="s">
         <v>642</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>643</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>537</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>130</v>
       </c>
       <c r="P2" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>646</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>647</v>
       </c>
       <c r="S2" s="20" t="s">
         <v>319</v>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>624</v>
@@ -15206,49 +15206,49 @@
         <v>45</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="22" t="s">
         <v>642</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>643</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>537</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>130</v>
       </c>
       <c r="P3" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>646</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>647</v>
       </c>
       <c r="S3" s="20" t="s">
         <v>319</v>
@@ -15592,7 +15592,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>312</v>
@@ -15618,7 +15618,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>416</v>
@@ -15630,7 +15630,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>319</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>416</v>
@@ -15656,7 +15656,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>319</v>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>416</v>
@@ -15682,7 +15682,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>319</v>
@@ -15723,28 +15723,28 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>330</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>522</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>1050</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>1051</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>1052</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>24</v>
@@ -15756,21 +15756,21 @@
         <v>36</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>38</v>
       </c>
       <c r="N1" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>857</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15781,13 +15781,13 @@
         <v>554</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>501</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -15799,16 +15799,16 @@
         <v>130</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -15833,7 +15833,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -15858,7 +15858,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -15883,7 +15883,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -15908,7 +15908,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -15931,7 +15931,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -15954,7 +15954,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -15977,7 +15977,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16000,7 +16000,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16023,7 +16023,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16046,7 +16046,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16069,7 +16069,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -16092,7 +16092,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -16115,7 +16115,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -16161,7 +16161,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -16182,7 +16182,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -16224,7 +16224,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -16245,7 +16245,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -16266,7 +16266,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -16274,7 +16274,7 @@
         <v>575</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -16282,7 +16282,7 @@
         <v>576</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -16298,7 +16298,7 @@
         <v>578</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -16306,7 +16306,7 @@
         <v>579</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -16314,7 +16314,7 @@
         <v>580</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -16322,7 +16322,7 @@
         <v>581</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -16330,7 +16330,7 @@
         <v>582</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -16338,7 +16338,7 @@
         <v>583</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -16346,7 +16346,7 @@
         <v>584</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="5:15">
@@ -16354,7 +16354,7 @@
         <v>585</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="5:15">
@@ -16362,7 +16362,7 @@
         <v>586</v>
       </c>
       <c r="O34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" spans="5:15">
@@ -16370,7 +16370,7 @@
         <v>587</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="5:15">
@@ -16378,27 +16378,27 @@
         <v>588</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="5:15">
       <c r="O37" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="5:15">
       <c r="O38" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="5:15">
       <c r="O39" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="5:15">
       <c r="O40" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -16422,10 +16422,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>910</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>911</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>304</v>
@@ -16436,13 +16436,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>459</v>
@@ -16450,13 +16450,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>459</v>
@@ -16482,7 +16482,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>13</v>
@@ -16496,10 +16496,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>16</v>
@@ -16583,16 +16583,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>329</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>32</v>
@@ -16603,19 +16603,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>1147</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>1148</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>45</v>
@@ -16627,7 +16627,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>45</v>
@@ -16639,7 +16639,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>45</v>
@@ -16651,7 +16651,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -16779,16 +16779,16 @@
         <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -16951,7 +16951,7 @@
   <sheetData>
     <row r="1" spans="1:58">
       <c r="A1" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
@@ -16975,151 +16975,151 @@
         <v>51</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>53</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>802</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AL1" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="AP1" s="5" t="s">
-        <v>807</v>
-      </c>
       <c r="AQ1" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AX1" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="BA1" s="5" t="s">
-        <v>818</v>
-      </c>
       <c r="BB1" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>830</v>
       </c>
       <c r="BF1" s="5" t="s">
         <v>496</v>
@@ -17135,10 +17135,10 @@
         <v>56</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>228</v>
@@ -17147,10 +17147,10 @@
         <v>61</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>58</v>
@@ -17167,29 +17167,29 @@
         <v>25</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="20" t="s">
         <v>1038</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>1039</v>
       </c>
-      <c r="Z2" s="20" t="s">
-        <v>1040</v>
-      </c>
       <c r="AA2" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>319</v>
@@ -17201,76 +17201,76 @@
       <c r="AG2" s="20"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
         <v>1064</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AK2" s="20" t="s">
         <v>1065</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AL2" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="AM2" s="20" t="s">
         <v>1066</v>
       </c>
-      <c r="AL2" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>1067</v>
-      </c>
       <c r="AN2" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="AO2" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AR2" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AS2" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AT2" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AU2" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AV2" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="AV2" s="20" t="s">
-        <v>849</v>
-      </c>
       <c r="AW2" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AX2" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AY2" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="BA2" s="20" t="s">
         <v>825</v>
-      </c>
-      <c r="BA2" s="20" t="s">
-        <v>826</v>
       </c>
       <c r="BB2" s="20" t="s">
         <v>508</v>
       </c>
       <c r="BC2" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="BD2" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="BF2" s="20" t="s">
         <v>831</v>
-      </c>
-      <c r="BF2" s="20" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="6" customFormat="1">
@@ -17286,7 +17286,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -17306,10 +17306,10 @@
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
@@ -17328,13 +17328,13 @@
         <v>130</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG3" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH3" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AI3" s="20"/>
       <c r="AJ3" s="2"/>
@@ -17353,7 +17353,7 @@
       <c r="AU3" s="20"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AX3" s="20"/>
       <c r="AY3" s="20"/>
@@ -17370,7 +17370,7 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>57</v>
@@ -17378,7 +17378,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -17398,10 +17398,10 @@
       </c>
       <c r="S4" s="20"/>
       <c r="T4" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
@@ -17431,7 +17431,7 @@
       <c r="AU4" s="20"/>
       <c r="AV4" s="20"/>
       <c r="AW4" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AX4" s="20"/>
       <c r="AY4" s="20"/>
@@ -17474,10 +17474,10 @@
       </c>
       <c r="S5" s="20"/>
       <c r="T5" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
@@ -17507,7 +17507,7 @@
       <c r="AU5" s="20"/>
       <c r="AV5" s="20"/>
       <c r="AW5" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AX5" s="20"/>
       <c r="AY5" s="20"/>
@@ -17525,17 +17525,17 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
@@ -17550,10 +17550,10 @@
       </c>
       <c r="S6" s="20"/>
       <c r="T6" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
@@ -17602,12 +17602,12 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -17619,7 +17619,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
@@ -17668,12 +17668,12 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
@@ -17685,7 +17685,7 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
@@ -17734,7 +17734,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -17749,7 +17749,7 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
@@ -17813,7 +17813,7 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
@@ -17862,7 +17862,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -17877,7 +17877,7 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
@@ -17919,20 +17919,20 @@
     </row>
     <row r="12" spans="1:58" s="6" customFormat="1">
       <c r="H12" s="20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I12" s="33"/>
       <c r="U12" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:58" s="6" customFormat="1">
       <c r="H13" s="20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I13" s="33"/>
       <c r="U13" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:58" s="6" customFormat="1">
@@ -17941,39 +17941,39 @@
       </c>
       <c r="I14" s="33"/>
       <c r="U14" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:58" s="6" customFormat="1">
       <c r="H15" s="20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I15" s="33"/>
       <c r="U15" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:58" s="6" customFormat="1">
       <c r="H16" s="20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I16" s="33"/>
       <c r="U16" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="8:21" s="6" customFormat="1">
       <c r="H17" s="20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I17" s="33"/>
       <c r="U17" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="8:21" s="6" customFormat="1">
       <c r="H18" s="20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I18" s="33"/>
       <c r="U18" s="6" t="s">
@@ -17982,95 +17982,95 @@
     </row>
     <row r="19" spans="8:21" s="6" customFormat="1">
       <c r="H19" s="20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I19" s="33"/>
       <c r="U19" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="8:21" s="6" customFormat="1">
       <c r="H20" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I20" s="33"/>
       <c r="U20" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="8:21" s="6" customFormat="1">
       <c r="H21" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I21" s="33"/>
       <c r="U21" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="8:21">
       <c r="H22" s="20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I22" s="33"/>
       <c r="U22" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="8:21">
       <c r="H23" s="20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I23" s="33"/>
       <c r="U23" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="8:21">
       <c r="H24" s="20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I24" s="33"/>
       <c r="U24" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="8:21">
       <c r="H25" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I25" s="33"/>
       <c r="U25" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="8:21">
       <c r="U26" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="8:21">
       <c r="U27" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="8:21">
       <c r="U28" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="8:21">
       <c r="U29" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="8:21">
       <c r="U30" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="8:21">
       <c r="U31" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="8:21">
@@ -18085,37 +18085,37 @@
     </row>
     <row r="34" spans="21:21">
       <c r="U34" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="21:21">
       <c r="U35" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="21:21">
       <c r="U36" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="21:21">
       <c r="U37" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="21:21">
       <c r="U38" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="21:21">
       <c r="U39" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="21:21">
       <c r="U40" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -18143,62 +18143,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>825</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>1045</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>1046</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
